--- a/WB/MakePrint/ХарактеристикиКардхолдер.xlsx
+++ b/WB/MakePrint/ХарактеристикиКардхолдер.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB_manager\Desktop\НОВЫЙ АПИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C3BF40-3EEB-499F-B420-17422E098A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BE6D7-FBCE-449B-A1A3-F83668105123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>Категория</t>
   </si>
@@ -164,36 +164,15 @@
     <t>Другу парню мужу; папе, отцу, коллеге, дедушке; ребенку дочери сыну внуку внучке; Маме Бабушке Жене Подруге; Родным и друзьям; любимой любимому; Девушке; мужчине; женщине; Брату; для маленьких детей; для детей; для подростков</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t xml:space="preserve">9 мая; День Победы; Наши герои; Победа </t>
   </si>
   <si>
-    <t>Мотоциклы; Автомобили; Мото; Авто; BMW; Mercedes; Fiat; Volkswagen; Hyundai; Toyota; Aston Martin; Honda; Volvo; Suzuki; Kawasaki; Ducati; Yamaha</t>
-  </si>
-  <si>
-    <t>Атака титанов; Токийский гуль; Ванпанчмен; КРД; Наруто; Дневник смерти; Боруто; Моя геройская академия; Код Гиас; Семь смертных грехов; Магическая битва; Хвост феи; Волейбол; Доктор Стоун; Черный клевер; Бездомный бог</t>
-  </si>
-  <si>
     <t>Стрит арт; Street art; изображение; картина; картинка; арты; узоры; абстракционизм; эстетика</t>
   </si>
   <si>
-    <t>Бабочка; бабочки; бабочка парусник; бражник; бабочка совка; Углокрыльница; Оранжевый ленточный тигр; Island Marble; Слава Бутана; Орнитоптера химера; Пурпурный император; Бабочка-Будда; Сафо; Графиум; Papilio Troilus; Тейнопальпус императорский; Голубая морфо; Геликония харитоний; Junonia almana; Климена; Калиго; Ангел Сильфина; Аполлон; Грета Ото; Изумрудная бабочка; Калима</t>
-  </si>
-  <si>
-    <t>Diesel; Giorgio Armani; Michael Kors; Hugo Boss; Tommy Hilfiger; Moschino; Calvin Klein; Stone Island; Lacoste; Louis Vuitton; LV; Kenzo; Prada; Versace; Giorgio Armani; Gucci; Polo Ralph Lauren; Dolce &amp; Gabbana; DG</t>
-  </si>
-  <si>
-    <t>Россия; Франция; Париж; Москва; Италия; Милан; Австрия; Австралия; США; Британия; Англия; Лондон; Сидней; Мексика; Аргентина; Барселона; Испания</t>
-  </si>
-  <si>
     <t>авокадо; единорог; лев; девушка; цветы; джокер; париж; Эйфелева башня; сова; совенок</t>
   </si>
   <si>
-    <t>Brawl Stars; Бравл старс; Роблокс; Roblox; Poppy Play Time; Хагги Вагги; Кисси Мисси; Клэш рояль; Clash Royale; Клеш оф кленс; Clash of Clans; Free Fire; Фри Файр; Пабг мобайл; PUBG mobile; Genshin Impact; Terraria; Майнкрафт; Minecraft; GTA; ГТА</t>
-  </si>
-  <si>
     <t xml:space="preserve">Девушка с косой; девушка с трубочкой; девушка в худи; девушка в кепке; девушка на чемодане; мишка; сердечки </t>
   </si>
   <si>
@@ -203,9 +182,6 @@
     <t>знаменитости; звезды; Голливуд; Hollywood</t>
   </si>
   <si>
-    <t>космос; звезды; млечный путь; планеты; галактика; вселенная; Юпитер; Нептун; Венера; Марс; полярная звезда; звездное небо</t>
-  </si>
-  <si>
     <t>ловец снов; амулет; оберег</t>
   </si>
   <si>
@@ -224,9 +200,6 @@
     <t>узор сердце; узор сердечки; красное сердце; розовое сердце; разноцветные сердечки</t>
   </si>
   <si>
-    <t>стикеры; эмодзи; наклейки; стикербомб; stickerbomb; билеты; вырезки</t>
-  </si>
-  <si>
     <t>ягоды; фрукты; клубника; малина; манго; узор фрукты; узор ягоды; дикие ягоды</t>
   </si>
   <si>
@@ -251,36 +224,18 @@
     <t>девушка; девушка с косой; девушка с трубочкой; девушка на чемодане; красивая девушка</t>
   </si>
   <si>
-    <t>девушка; девушка с косой; девушка с трубочкой; девушка на чемодане; красивая девушка; сердечки</t>
-  </si>
-  <si>
-    <t>Ловцы снов; оберег; талисман</t>
-  </si>
-  <si>
     <t>Животные; Природа; Пейзаж; Закат</t>
   </si>
   <si>
-    <t>Сердце; Сердечко; узор сердечки; красное сердце; розовое сердце</t>
-  </si>
-  <si>
     <t>Стикеры; Эмодзи</t>
   </si>
   <si>
-    <t>Фрукты; Ягоды</t>
-  </si>
-  <si>
-    <t>Цветы; цветочные узоры</t>
-  </si>
-  <si>
     <t>Другие герои Disney; Сердце; Тедди; Мишка Тедди; Teddy</t>
   </si>
   <si>
     <t>Силиконовый чехол с визитницей; Чехол-накладка с карманом; Накладка с кардхолдером; Прозрачный чехол с бумажником; Бампер с кармашком; Защитный кейс с кардхолдером; Чехол-бампер с кардхолдером; Стильный чехол с отделением; Красивый чехол с отделом для карт; Стильный чехол на телефон с отделением для банковских карт; Стильный чехол для смартфона с визитницей; Стильный чехол на смартфон с кардхолдером</t>
   </si>
   <si>
-    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: космос, звезды, млечный путь, планеты, галактика, вселенная, Юпитер, Нептун, Венера, Марс, полярная звезда, звездное небо и другие. Приятных покупок! Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером ***</t>
-  </si>
-  <si>
     <t>Декоративные элементы</t>
   </si>
   <si>
@@ -359,383 +314,136 @@
     <t>Прозрачный кейс с кармашком; Накладка-бампер с карманом; кейс с отделом; накладка с кармашком; бампер с визитницей; Прозрачная накладка с бумажником; чехол с держателем карт; прозрачный чехол с отделением для карты; чехол-накладка с отделом для пропуска; чехол-бампер с отделом для кредитки; кейс-накладка с отделением; Чехол с держателем карт; Накладка с держателем карт; Бампер с держателем карт; Кейс с держателем карт; Чехол с визитницей; Накладка с визитницей; Кейс с визитницей</t>
   </si>
   <si>
-    <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: 9 мая, День Победы, Наши герои, Победа и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Мотоциклы, Автомобили, Мото, Авто, BMW, Mercedes, Fiat, Volkswagen, Hyundai, Toyota, Aston Martin, Honda, Volvo, Suzuki, Kawasaki, Ducati, Yamaha и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Атака титанов, Токийский гуль, Ванпанчмен, КРД, Наруто, Дневник смерти, Боруто, Моя геройская академия, Код Гиас, Семь смертных грехов, Магическая битва, Хвост феи, Волейбол, Доктор Стоун, Черный клевер, Бездомный бог и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Стрит арт, Street art, изображение, картина, картинка, арты, узоры, абстракционизм, эстетика и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Бабочка, бабочки, бабочка парусник, бражник, бабочка совка, Углокрыльница, Оранжевый ленточный тигр, Island Marble, Слава Бутана, Орнитоптера химера, Пурпурный император, Бабочка-Будда, Сафо, Графиум, Papilio Troilus, Тейнопальпус императорский, Голубая морфо, Геликония харитоний, Junonia almana, Климена, Калиго, Ангел Сильфина, Аполлон, Грета Ото, Изумрудная бабочка, Калима и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Diesel, Giorgio Armani, Michael Kors, Hugo Boss, Tommy Hilfiger, Moschino, Calvin Klein, Stone Island, Lacoste, Louis Vuitton, LV, Kenzo, Prada, Versace, Giorgio Armani, Gucci, Polo Ralph Lauren, Dolce &amp; Gabbana, DG и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Россия, Франция, Париж, Москва, Италия, Милан, Австрия, Австралия, США, Британия, Англия, Лондон, Сидней, Мексика, Аргентина, Барселона, Испания и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. Накладка с напечатанным рисунком объединяют их герои и персонажи, изображенные на принтах: авокадо, единорог, лев, девушка, цветы, джокер, париж, Эйфелева башня, сова, совенок и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Brawl Stars, Бравл старс, Роблокс, Roblox, Poppy Play Time, Хагги Вагги, Кисси Мисси, Клэш рояль, Clash Royale, Клеш оф кленс, Clash of Clans, Free Fire, Фри Файр, Пабг мобайл, PUBG mobile, Genshin Impact, Terraria, Майнкрафт, Minecraft, GTA, ГТА и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Девушка с косой, девушка с трубочкой, девушка в худи, девушка в кепке, девушка на чемодане, мишка, сердечки и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: животные, домашние питомцы, дикие животные, домашние животные, кошка, собака, котята, щенки, тигр, лев, волк, лиса, заяц, кролик и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: знаменитости, звезды, Голливуд, Hollywood и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: ловец снов, амулет, оберег и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: каллиграфия, надписи, подпись, разноцветная надпись и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: орнамент, узор, абстракция, узор сердечки, узор фрукты, ягоды и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: парные, для любимой, для любимого, для пары, парочке, для мужа, для жены, парню, девушке и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: природа, лес, поле, пейзаж, река, дикая природа, живая природа, закат, восход, растения, трава, деревья и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: узор сердце, узор сердечки, красное сердце, розовое сердце, разноцветные сердечки и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: стикеры, эмодзи, наклейки, стикербомб, stickerbomb, билеты, вырезки и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: ягоды, фрукты, клубника, малина, манго, узор фрукты, узор ягоды, дикие ягоды и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт на *** не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона *** отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. Доступны дизайны с рисунком: цветы, цветочки, узор цветы, роза, розочки, красивые цветы, лилия, пион и другие. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
-    </r>
-  </si>
-  <si>
     <t>Чехол с визитницей; Бампер с кардхолдером; Накладка с кармашком; Кейс с карманом; Чехол-бумажник; Накладка-бумажник; Бампер-бумажник; Кейс-бумажник; Чехол с держателем карты; Кейс с держателем карты; Накладка с держателем карты; Бампер с держателем карты; Накладка с визитницей; Кейс с визитницей; Чехол с отделением; Накладка с отделением; Кейс с отделением; Чехол c карманом; Накладка с карманом; Бампер с карманом; Чехол c кармашком; Накладка c кармашком; Кейс c кармашком; Бампер c кармашком; Чехол с картхолдером; Накладка с картхолдером; Бампер с картхолдером; Кейс с картхолдером</t>
   </si>
   <si>
     <t>Кардхолдер; Cardholder; Чехол-бумажник; Отдел для карты; Отделение для проездного; Кармашек для транспортной карты; Карман для пластиковой карты; Держатель для пропуска; Отделение для дисконтных карт; Держатель карты; Отдел для купюр; Отдел для денег; Держатель для купюр; Картхолдер</t>
   </si>
   <si>
-    <t>Рик и Морти; Наруто; Ван Пис; Гомер; Барт; Симпсоны; Смешарики; Другие герои Disney</t>
-  </si>
-  <si>
-    <t>Кино; сериалы; мультики; мультфильмы; Рик и морти; симпсоны; гриффины; южный парк; ходячие мертвецы; игра престолов; король лев; утиные истории; гравити фолз; смешарики; губка боб; во все тяжкие; офис; атака титанов; клиника; футурама; доктор кто</t>
+    <t>Сплошной цвет</t>
+  </si>
+  <si>
+    <t>Цветной принт; Цветная печать; Полное покрытие цветом; Цветное покрытие; Полностью цветная задняя панель; Сплошная заливка; Цветная палитра; Любимый цвет; Покрытие цветом</t>
+  </si>
+  <si>
+    <t>Сплошная заливка; Сплошной цвет; Цветное покрытие; Палитра цвета; Покрытие цветом; Любимый цвет; Все цвета радуги</t>
+  </si>
+  <si>
+    <t>Девушки; Мишка; Тедди; Teddy</t>
+  </si>
+  <si>
+    <t>Рик и Морти; Наруто; Ван Пис; Гомер; Барт; Симпсоны; Другие герои Disney</t>
+  </si>
+  <si>
+    <t>Мотоциклы; Автомобили; Мото; Авто; Fiat; Volkswagen; Hyundai; Toyota; Aston Martin; Honda; Volvo; Suzuki; Ducati</t>
+  </si>
+  <si>
+    <t>Атака титанов; Токийский гуль; Ванпанчмен; КРД; Дневник смерти; Боруто; Моя геройская академия; Код Гиас; Семь смертных грехов; Магическая битва; Хвост феи; Волейбол; Доктор Стоун; Черный клевер; Бездомный бог</t>
+  </si>
+  <si>
+    <t>бабочка парусник; бражник; бабочка совка; Углокрыльница; Оранжевый ленточный тигр; Island Marble; Слава Бутана; Орнитоптера химера; Пурпурный император; Бабочка-Будда; Сафо; Графиум; Papilio Troilus; Тейнопальпус императорский; Голубая морфо; Геликония харитоний; Junonia almana; Климена; Калиго; Ангел Сильфина; Аполлон; Грета Ото; Изумрудная бабочка; Калима</t>
+  </si>
+  <si>
+    <t>Diesel; Giorgio; Michael Kors; Hugo Boss; Tommy Hilfiger; Moschino; Calvin Klein; Stone Island; Lacoste; Louis Vuitton; Kenzo; Prada; Giorgio Armani; Polo Ralph Lauren; Dolce &amp; Gabbana</t>
+  </si>
+  <si>
+    <t>Франция; Париж; Москва; Италия; Милан; Австрия; Австралия; США; Британия; Англия; Лондон; Сидней; Мексика; Аргентина; Барселона; Испания</t>
+  </si>
+  <si>
+    <t>Бравл старс; Роблокс; Poppy Play Time; Клэш рояль; Clash Royale; Клеш оф кленс; Clash of Clans; Free Fire; Фри Файр; Пабг мобайл; PUBG mobile; Genshin Impact; Terraria; Майнкрафт; Minecraft; GTA; ГТА</t>
+  </si>
+  <si>
+    <t>Кино; сериалы; мультики; мультфильмы; гриффины; южный парк; ходячие мертвецы; игра престолов; король лев; утиные истории; гравити фолз; губка боб; во все тяжкие; офис; атака титанов; клиника; футурама; доктор кто</t>
+  </si>
+  <si>
+    <t>звезды; млечный путь; планеты; галактика; вселенная; Юпитер; Нептун; Венера; Марс; полярная звезда; звездное небо</t>
+  </si>
+  <si>
+    <t>наклейки; стикербомб; stickerbomb; билеты; вырезки; афиша</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: 9 мая, День Победы, Наши герои, Победа и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Мотоциклы, Автомобили, Мото, Авто, BMW, Mercedes, Fiat, Volkswagen, Hyundai, Toyota, Aston Martin, Honda, Volvo, Suzuki, Kawasaki, Ducati, Yamaha и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Атака титанов, Токийский гуль, Ванпанчмен, КРД, Наруто, Дневник смерти, Боруто, Моя геройская академия, Код Гиас, Семь смертных грехов, Магическая битва, Хвост феи, Волейбол, Доктор Стоун, Черный клевер, Бездомный бог и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Стрит арт, Street art, изображение, картина, картинка, арты, узоры, абстракционизм, эстетика и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Бабочка, бабочки, бабочка парусник, бражник, бабочка совка, Углокрыльница, Оранжевый ленточный тигр, Island Marble, Слава Бутана, Орнитоптера химера, Пурпурный император, Бабочка-Будда, Сафо, Графиум, Papilio Troilus, Тейнопальпус императорский, Голубая морфо, Геликония харитоний, Junonia almana, Климена, Калиго, Ангел Сильфина, Аполлон, Грета Ото, Изумрудная бабочка, Калима и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Diesel, Giorgio Armani, Michael Kors, Hugo Boss, Tommy Hilfiger, Moschino, Calvin Klein, Stone Island, Lacoste, Louis Vuitton, LV, Kenzo, Prada, Versace, Giorgio Armani, Gucci, Polo Ralph Lauren, Dolce &amp; Gabbana, DG и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Россия, Франция, Париж, Москва, Италия, Милан, Австрия, Австралия, США, Британия, Англия, Лондон, Сидней, Мексика, Аргентина, Барселона, Испания и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. Накладка с напечатанным рисунком объединяют их герои и персонажи, изображенные на принтах: авокадо, единорог, лев, девушка, цветы, джокер, париж, Эйфелева башня, сова, совенок и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Brawl Stars, Бравл старс, Роблокс, Roblox, Poppy Play Time, Хагги Вагги, Кисси Мисси, Клэш рояль, Clash Royale, Клеш оф кленс, Clash of Clans, Free Fire, Фри Файр, Пабг мобайл, PUBG mobile, Genshin Impact, Terraria, Майнкрафт, Minecraft, GTA, ГТА и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Девушка с косой, девушка с трубочкой, девушка в худи, девушка в кепке, девушка на чемодане, мишка, сердечки и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: животные, домашние питомцы, дикие животные, домашние животные, кошка, собака, котята, щенки, тигр, лев, волк, лиса, заяц, кролик и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: знаменитости, звезды, Голливуд, Hollywood и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: Кино, сериалы, мультики, мультфильмы, Рик и морти, симпсоны, гриффины, южный парк, ходячие мертвецы, игра престолов, король лев, утиные истории, гравити фолз, губка боб, во все тяжкие, офис, атака титанов, клиника, футурама, доктор кто и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: космос, звезды, млечный путь, планеты, галактика, вселенная, Юпитер, Нептун, Венера, Марс, полярная звезда, звездное небо и другие. Приятных покупок! Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: ловец снов, амулет, оберег и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: каллиграфия, надписи, подпись, разноцветная надпись и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: орнамент, узор, абстракция, узор сердечки, узор фрукты, ягоды и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: парные, для любимой, для любимого, для пары, парочке, для мужа, для жены, парню, девушке и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: природа, лес, поле, пейзаж, река, дикая природа, живая природа, закат, восход, растения, трава, деревья и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: узор сердце, узор сердечки, красное сердце, розовое сердце, разноцветные сердечки и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: стикеры, эмодзи, наклейки, стикербомб, stickerbomb, билеты, вырезки и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. В нашем ассортименте вы найдете чехлы с рисунком: ягоды, фрукты, клубника, малина, манго, узор фрукты, узор ягоды, дикие ягоды и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с дизайнерским принтом изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол с кармашком для карт не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт может быть нанесен сплошным слоем на заднюю поверхность силиконового чехла или часть заготовки может остаться прозрачной. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам ***. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – частично или полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. Доступны дизайны с рисунком: цветы, цветочки, узор цветы, роза, розочки, красивые цветы, лилия, пион и другие. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Силиконовый прозрачный чехол с визитницей для *** / *** с цветным покрытием изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол со сплошным покрытием цветом не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт нанесен сплошным слоем на заднюю поверхность силиконового чехла. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. Также доступны дизайны с рисунком: 9 Мая, автомобили, мотоциклы, аниме, арты, бабочки, бренды, города и страны, девушки, детские принты, женские, животные, знаменитости, кино, сериалы, мультфильмы, мультики, космос, ловцы снов, каллиграфия, орнамент, узор, абстракция, парные. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,15 +469,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,6 +493,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -848,26 +567,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% — акцент1" xfId="1" builtinId="30"/>
@@ -1149,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1168,7 +885,7 @@
     <col min="9" max="9" width="10.140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="14" style="3" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="49.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="29.5703125" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -1184,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1213,9 +930,7 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1225,12 +940,12 @@
         <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1240,26 +955,24 @@
         <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>108</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1269,13 +982,13 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
@@ -1284,26 +997,24 @@
         <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>109</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1313,12 +1024,12 @@
         <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1328,26 +1039,24 @@
         <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>110</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1357,13 +1066,13 @@
         <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>36</v>
@@ -1372,26 +1081,24 @@
         <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>111</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1401,13 +1108,13 @@
         <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
@@ -1416,26 +1123,24 @@
         <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>112</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1445,12 +1150,12 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1460,26 +1165,24 @@
         <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>113</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1489,13 +1192,13 @@
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>36</v>
@@ -1504,26 +1207,24 @@
         <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>114</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1533,13 +1234,13 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>36</v>
@@ -1548,26 +1249,24 @@
         <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>115</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1577,14 +1276,14 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1592,26 +1291,24 @@
         <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>116</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1621,13 +1318,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>36</v>
@@ -1636,26 +1333,24 @@
         <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>117</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1665,12 +1360,12 @@
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1680,26 +1375,24 @@
         <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>118</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1709,12 +1402,12 @@
         <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1724,26 +1417,24 @@
         <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>119</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1753,13 +1444,13 @@
         <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>131</v>
+      <c r="E14" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>36</v>
@@ -1768,26 +1459,24 @@
         <v>41</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1797,12 +1486,12 @@
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1812,26 +1501,24 @@
         <v>41</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1841,13 +1528,13 @@
         <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>36</v>
@@ -1856,26 +1543,24 @@
         <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1885,12 +1570,12 @@
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1900,26 +1585,24 @@
         <v>41</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>57</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1929,12 +1612,12 @@
         <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1944,26 +1627,24 @@
         <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1973,13 +1654,13 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>36</v>
@@ -1988,26 +1669,24 @@
         <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2017,13 +1696,13 @@
         <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>36</v>
@@ -2032,26 +1711,24 @@
         <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2061,13 +1738,13 @@
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>36</v>
@@ -2076,26 +1753,24 @@
         <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2105,13 +1780,13 @@
         <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>36</v>
@@ -2120,26 +1795,24 @@
         <v>41</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2149,13 +1822,13 @@
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>36</v>
@@ -2164,26 +1837,24 @@
         <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2193,13 +1864,13 @@
         <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>36</v>
@@ -2208,31 +1879,71 @@
         <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="M24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
     <sortCondition ref="A2:A24"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/WB/MakePrint/ХарактеристикиКардхолдер.xlsx
+++ b/WB/MakePrint/ХарактеристикиКардхолдер.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BE6D7-FBCE-449B-A1A3-F83668105123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F609E769-043F-467B-B8B1-344B0ADCCCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -233,9 +232,6 @@
     <t>Другие герои Disney; Сердце; Тедди; Мишка Тедди; Teddy</t>
   </si>
   <si>
-    <t>Силиконовый чехол с визитницей; Чехол-накладка с карманом; Накладка с кардхолдером; Прозрачный чехол с бумажником; Бампер с кармашком; Защитный кейс с кардхолдером; Чехол-бампер с кардхолдером; Стильный чехол с отделением; Красивый чехол с отделом для карт; Стильный чехол на телефон с отделением для банковских карт; Стильный чехол для смартфона с визитницей; Стильный чехол на смартфон с кардхолдером</t>
-  </si>
-  <si>
     <t>Декоративные элементы</t>
   </si>
   <si>
@@ -314,9 +310,6 @@
     <t>Прозрачный кейс с кармашком; Накладка-бампер с карманом; кейс с отделом; накладка с кармашком; бампер с визитницей; Прозрачная накладка с бумажником; чехол с держателем карт; прозрачный чехол с отделением для карты; чехол-накладка с отделом для пропуска; чехол-бампер с отделом для кредитки; кейс-накладка с отделением; Чехол с держателем карт; Накладка с держателем карт; Бампер с держателем карт; Кейс с держателем карт; Чехол с визитницей; Накладка с визитницей; Кейс с визитницей</t>
   </si>
   <si>
-    <t>Чехол с визитницей; Бампер с кардхолдером; Накладка с кармашком; Кейс с карманом; Чехол-бумажник; Накладка-бумажник; Бампер-бумажник; Кейс-бумажник; Чехол с держателем карты; Кейс с держателем карты; Накладка с держателем карты; Бампер с держателем карты; Накладка с визитницей; Кейс с визитницей; Чехол с отделением; Накладка с отделением; Кейс с отделением; Чехол c карманом; Накладка с карманом; Бампер с карманом; Чехол c кармашком; Накладка c кармашком; Кейс c кармашком; Бампер c кармашком; Чехол с картхолдером; Накладка с картхолдером; Бампер с картхолдером; Кейс с картхолдером</t>
-  </si>
-  <si>
     <t>Кардхолдер; Cardholder; Чехол-бумажник; Отдел для карты; Отделение для проездного; Кармашек для транспортной карты; Карман для пластиковой карты; Держатель для пропуска; Отделение для дисконтных карт; Держатель карты; Отдел для купюр; Отдел для денег; Держатель для купюр; Картхолдер</t>
   </si>
   <si>
@@ -432,6 +425,12 @@
   </si>
   <si>
     <t>Силиконовый прозрачный чехол с визитницей для *** / *** с цветным покрытием изготовлен из высококачественного силикона, обеспечивает великолепную защиту телефона от потертостей и сколов. Гибкий и упругий, он легко надевается на телефон и не деформируется при использовании. Небольшая толщина накладки позволяет удобно держать смартфон в руке и не увеличивать его габариты. Чехол со сплошным покрытием цветом не скользит в руках. Рисунок мы наносим на собственном производстве: используем высокотехнологичное оборудование и гибкие прочные полимеры. Принт нанесен сплошным слоем на заднюю поверхность силиконового чехла. При необходимости можно мыть или протирать влажной салфеткой. Длительное время не теряет своих свойств и цвет. Обеспечен удобный доступ к технологическим разъемам и функциональным клавишам. Встроенное отделение для карт позволяет оплачивать покупки не доставая карты, тем самым заменяя чип NFC. Рисунок на чехле защитит Ваши личные данные – полностью закрывая банковскую карту. Кармашек для карт можно также использовать для проездных и транспортных карт, а также пропусков. Материал накладки прекрасно пропускает сигнал. Защитный чехол для телефона от Mobi711 отличает прочность и долгий срок службы, чтобы ваш смартфон сохранил свой первоначальный вид как можно дольше. Также доступны дизайны с рисунком: 9 Мая, автомобили, мотоциклы, аниме, арты, бабочки, бренды, города и страны, девушки, детские принты, женские, животные, знаменитости, кино, сериалы, мультфильмы, мультики, космос, ловцы снов, каллиграфия, орнамент, узор, абстракция, парные. Силиконовый чехол *** / Чехол-накладка *** / Накладка *** / Прозрачный чехол *** / Бампер *** / Защитный кейс *** / Чехол-бампер *** / Стильный чехол *** / Красивый чехол *** / Стильный чехол на телефон *** / Стильный чехол для смартфона *** / Стильный чехол на смартфон *** / Силиконовый чехол с визитницей *** / Чехол-накладка с бумажником *** / Накладка с кармашком для карт *** / Прозрачный чехол с отделением для карт *** / Бампер с карманом для карточки *** / Защитный кейс для карт *** / Чехол-бампер с отделением для банковских карт *** / Стильный чехол с кардхолдером *** / Красивый чехол с кардхолдером *** / Стильный чехол на телефон с визитницей *** / Стильный чехол для смартфона с бумажником *** / Стильный чехол на смартфон с кардхолдером *** / Чехол с изображением *** / Накладка с изображением *** / Бампер с изображением *** / Кейс с изображением *** / Чехол с картинкой *** / Накладка с картинкой *** / Бампер с картинкой *** / Кейс с картинкой *** / Чехол с картхолдером *** / Накладка с картхолдером *** / Бампер с картхолдером *** / Кейс с картхолдером ***</t>
+  </si>
+  <si>
+    <t>Чехол для;Чехол на; Чехол;Чехол с визитницей на;Чехол с визитницей для;Чехол с визитницей;Чехол с кардхолдером;Чехол с кардхолдером на;Чехол с кардхолдером для;Чехол с картхолдером;Чехол с картхолдером на;Чехол с картхолдером для</t>
+  </si>
+  <si>
+    <t>Чехол с картхолдером</t>
   </si>
 </sst>
 </file>
@@ -869,7 +868,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -901,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -940,10 +939,10 @@
         <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>37</v>
@@ -955,7 +954,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>56</v>
@@ -964,13 +963,13 @@
         <v>42</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -982,13 +981,13 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>36</v>
@@ -997,22 +996,22 @@
         <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N3" s="2"/>
     </row>
@@ -1024,10 +1023,10 @@
         <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>38</v>
@@ -1039,22 +1038,22 @@
         <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1066,10 +1065,10 @@
         <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>58</v>
@@ -1081,7 +1080,7 @@
         <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>57</v>
@@ -1090,13 +1089,13 @@
         <v>43</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -1108,10 +1107,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>59</v>
@@ -1123,22 +1122,22 @@
         <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -1150,10 +1149,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>39</v>
@@ -1165,22 +1164,22 @@
         <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1192,10 +1191,10 @@
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>60</v>
@@ -1207,22 +1206,22 @@
         <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -1234,10 +1233,10 @@
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>61</v>
@@ -1249,7 +1248,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>57</v>
@@ -1258,13 +1257,13 @@
         <v>44</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -1276,13 +1275,13 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
@@ -1291,22 +1290,22 @@
         <v>41</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1318,13 +1317,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>36</v>
@@ -1333,7 +1332,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>57</v>
@@ -1342,13 +1341,13 @@
         <v>45</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -1360,10 +1359,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>40</v>
@@ -1375,7 +1374,7 @@
         <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>57</v>
@@ -1384,13 +1383,13 @@
         <v>46</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N12" s="2"/>
     </row>
@@ -1402,10 +1401,10 @@
         <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>37</v>
@@ -1417,7 +1416,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>57</v>
@@ -1426,13 +1425,13 @@
         <v>47</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N13" s="2"/>
     </row>
@@ -1444,13 +1443,13 @@
         <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>36</v>
@@ -1459,22 +1458,22 @@
         <v>41</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -1486,10 +1485,10 @@
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>40</v>
@@ -1501,22 +1500,22 @@
         <v>41</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -1528,10 +1527,10 @@
         <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>40</v>
@@ -1543,7 +1542,7 @@
         <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>57</v>
@@ -1552,13 +1551,13 @@
         <v>48</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N16" s="2"/>
     </row>
@@ -1570,10 +1569,10 @@
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>40</v>
@@ -1585,7 +1584,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>57</v>
@@ -1594,13 +1593,13 @@
         <v>49</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N17" s="2"/>
     </row>
@@ -1612,10 +1611,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>40</v>
@@ -1627,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>57</v>
@@ -1636,13 +1635,13 @@
         <v>50</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N18" s="2"/>
     </row>
@@ -1654,10 +1653,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>64</v>
@@ -1669,7 +1668,7 @@
         <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>57</v>
@@ -1678,13 +1677,13 @@
         <v>51</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N19" s="2"/>
     </row>
@@ -1696,10 +1695,10 @@
         <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>62</v>
@@ -1711,7 +1710,7 @@
         <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>57</v>
@@ -1720,13 +1719,13 @@
         <v>52</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N20" s="2"/>
     </row>
@@ -1738,10 +1737,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>40</v>
@@ -1753,7 +1752,7 @@
         <v>41</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>57</v>
@@ -1762,13 +1761,13 @@
         <v>53</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N21" s="2"/>
     </row>
@@ -1780,10 +1779,10 @@
         <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>63</v>
@@ -1795,22 +1794,22 @@
         <v>41</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N22" s="2"/>
     </row>
@@ -1822,10 +1821,10 @@
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>40</v>
@@ -1837,7 +1836,7 @@
         <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>57</v>
@@ -1846,13 +1845,13 @@
         <v>54</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N23" s="2"/>
     </row>
@@ -1864,10 +1863,10 @@
         <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>40</v>
@@ -1879,7 +1878,7 @@
         <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>57</v>
@@ -1888,28 +1887,28 @@
         <v>55</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>40</v>
@@ -1921,22 +1920,22 @@
         <v>41</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>92</v>
+        <v>129</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/WB/MakePrint/ХарактеристикиКардхолдер.xlsx
+++ b/WB/MakePrint/ХарактеристикиКардхолдер.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541E5C78-09D6-4C8F-AC4D-11F9B26128CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FA90EF-1A94-4902-A4BA-CF9D062031B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA42C2E1-5531-4E15-A967-65A809539B8E}"/>
   </bookViews>
@@ -342,9 +342,6 @@
     <t>без застежки; нет застежки</t>
   </si>
   <si>
-    <t>Чехол с картхолдером на модель ***</t>
-  </si>
-  <si>
     <t>Чехол с картхолдером;Накладка с держателем для карт;Бампер с визитницей</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>Чехол с визитницей на;Чехол с визитницей для;Чехол с карманом на; Чехол с карманом для; Чехол с картхолдером для;Чехол с картхолдером для</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чехол с картхолдером на модель </t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +939,7 @@
         <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -963,13 +963,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="8"/>
     </row>
@@ -981,7 +981,7 @@
         <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1005,13 +1005,13 @@
         <v>25</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -1046,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -1087,13 +1087,13 @@
         <v>32</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1104,7 +1104,7 @@
         <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -1128,13 +1128,13 @@
         <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -1169,13 +1169,13 @@
         <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
@@ -1210,13 +1210,13 @@
         <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
         <v>101</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>44</v>
@@ -1251,13 +1251,13 @@
         <v>46</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1268,7 +1268,7 @@
         <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>22</v>
@@ -1292,13 +1292,13 @@
         <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
@@ -1333,13 +1333,13 @@
         <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1350,7 +1350,7 @@
         <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>54</v>
@@ -1374,13 +1374,13 @@
         <v>55</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -1415,13 +1415,13 @@
         <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>101</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>59</v>
@@ -1456,13 +1456,13 @@
         <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1473,7 +1473,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>62</v>
@@ -1497,13 +1497,13 @@
         <v>63</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -1514,7 +1514,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>65</v>
@@ -1538,13 +1538,13 @@
         <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1555,7 +1555,7 @@
         <v>101</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>69</v>
@@ -1579,13 +1579,13 @@
         <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
         <v>101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
@@ -1620,13 +1620,13 @@
         <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1637,7 +1637,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>75</v>
@@ -1661,13 +1661,13 @@
         <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>101</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>79</v>
@@ -1702,13 +1702,13 @@
         <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
         <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>75</v>
@@ -1743,13 +1743,13 @@
         <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>86</v>
@@ -1784,13 +1784,13 @@
         <v>88</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>90</v>
@@ -1825,13 +1825,13 @@
         <v>92</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1842,7 +1842,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>94</v>
@@ -1866,13 +1866,13 @@
         <v>96</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -1883,7 +1883,7 @@
         <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>98</v>
@@ -1907,13 +1907,13 @@
         <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
